--- a/CloVis/CV_Examples/cv5.xlsx
+++ b/CloVis/CV_Examples/cv5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>nom</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>adress</t>
-  </si>
-  <si>
-    <t>skill1</t>
   </si>
   <si>
     <t>skill2</t>
@@ -120,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +430,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,126 +471,126 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1">
-        <v>930</v>
+        <v>630</v>
       </c>
       <c r="D2" s="1">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1">
         <f>C2-B2</f>
-        <v>583</v>
+        <v>316</v>
       </c>
       <c r="G2" s="1">
         <f>E2-D2</f>
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1">
-        <f>B2*21/1019</f>
-        <v>7.1511285574092245</v>
+        <f>B2*21/1140</f>
+        <v>5.7842105263157899</v>
       </c>
       <c r="I2" s="1">
-        <f>(C2-B2)*21/1019</f>
-        <v>12.014720314033367</v>
+        <f>(C2-B2)*21/1140</f>
+        <v>5.8210526315789473</v>
       </c>
       <c r="J2" s="1">
-        <f>D2*21/1019</f>
-        <v>1.33954857703631</v>
+        <f>D2*21/1140</f>
+        <v>3.4078947368421053</v>
       </c>
       <c r="K2" s="1">
-        <f>(E2-D2)*21/1019</f>
-        <v>2.3905789990186457</v>
+        <f>(E2-D2)*21/1140</f>
+        <v>0.71842105263157896</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>478</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1">
-        <v>800</v>
+        <v>545</v>
       </c>
       <c r="D3" s="1">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F18" si="0">C3-B3</f>
-        <v>322</v>
+        <f t="shared" ref="F3:G11" si="0">C3-B3</f>
+        <v>231</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G18" si="1">E3-D3</f>
-        <v>50</v>
+        <f t="shared" ref="G3:G11" si="1">E3-D3</f>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H18" si="2">B3*21/1019</f>
-        <v>9.8508341511285575</v>
+        <f t="shared" ref="H3:H10" si="2">B3*21/1140</f>
+        <v>5.7842105263157899</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I18" si="3">(C3-B3)*21/1019</f>
-        <v>6.6359175662414129</v>
+        <f t="shared" ref="I3:I10" si="3">(C3-B3)*21/1140</f>
+        <v>4.2552631578947366</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J18" si="4">D3*21/1019</f>
-        <v>3.4416094210009813</v>
+        <f t="shared" ref="J3:J10" si="4">D3*21/1140</f>
+        <v>4.2368421052631575</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K18" si="5">(E3-D3)*21/1019</f>
-        <v>1.0304219823356231</v>
+        <f t="shared" ref="K3:K10" si="5">(E3-D3)*21/1140</f>
+        <v>0.55263157894736847</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="D4" s="1">
-        <v>400</v>
+        <v>1244</v>
       </c>
       <c r="E4" s="1">
-        <v>730</v>
+        <v>1420</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>446</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9038272816486748</v>
+        <f>B4*21/1140</f>
+        <v>5.7842105263157899</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>12.88027477919529</v>
+        <v>8.215789473684211</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>8.2433758586849848</v>
+        <v>22.91578947368421</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="5"/>
-        <v>6.8007850834151125</v>
+        <v>3.2421052631578946</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -594,40 +598,40 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1">
-        <v>960</v>
+        <v>760</v>
       </c>
       <c r="D5" s="1">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="E5" s="1">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>446</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>6.9038272816486748</v>
+        <v>5.7842105263157899</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>12.88027477919529</v>
+        <v>8.215789473684211</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>17.517173699705594</v>
+        <v>16.394736842105264</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
-        <v>6.8007850834151125</v>
+        <v>5.0842105263157897</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -635,40 +639,40 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="C6" s="1">
-        <v>265</v>
+        <v>755</v>
       </c>
       <c r="D6" s="1">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.88616290480863591</v>
+        <v>5.7842105263157899</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>4.5750736015701667</v>
+        <v>8.1236842105263154</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>7.9342492639842988</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
-        <v>2.3699705593719331</v>
+        <v>1.2894736842105263</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,40 +680,40 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>85</v>
+        <v>670</v>
       </c>
       <c r="C7" s="1">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="D7" s="1">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="E7" s="1">
-        <v>620</v>
+        <v>713</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>1.7517173699705593</v>
+        <v>12.342105263157896</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>3.8125613346418059</v>
+        <v>2.3947368421052633</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>12.365063788027477</v>
+        <v>12.526315789473685</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>0.60789473684210527</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -717,40 +721,40 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>85</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1">
-        <v>270</v>
+        <v>613</v>
       </c>
       <c r="D8" s="1">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="E8" s="1">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>1.7517173699705593</v>
+        <v>6.7236842105263159</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>3.8125613346418059</v>
+        <v>4.5684210526315789</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>12.983316977428851</v>
+        <v>13.631578947368421</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>0.46052631578947367</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -758,409 +762,116 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>85</v>
+        <v>365</v>
       </c>
       <c r="C9" s="1">
-        <v>270</v>
+        <v>613</v>
       </c>
       <c r="D9" s="1">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="E9" s="1">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>1.7517173699705593</v>
+        <v>6.7236842105263159</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>3.8125613346418059</v>
+        <v>4.5684210526315789</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>13.601570166830225</v>
+        <v>12.526315789473685</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>0.60789473684210527</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>670</v>
       </c>
       <c r="C10" s="1">
-        <v>260</v>
+        <v>800</v>
       </c>
       <c r="D10" s="1">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="E10" s="1">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>1.0304219823356231</v>
+        <v>12.342105263157896</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>4.327772325809617</v>
+        <v>2.3947368421052633</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>16.07458292443572</v>
+        <v>13.631578947368421</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>0.46052631578947367</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1">
-        <v>260</v>
-      </c>
-      <c r="D11" s="1">
-        <v>847</v>
-      </c>
-      <c r="E11" s="1">
-        <v>867</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0304219823356231</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>4.327772325809617</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="4"/>
-        <v>17.455348380765457</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
-        <v>260</v>
-      </c>
-      <c r="D12" s="1">
-        <v>923</v>
-      </c>
-      <c r="E12" s="1">
-        <v>943</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0304219823356231</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
-        <v>4.327772325809617</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="4"/>
-        <v>19.021589793915602</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <v>260</v>
-      </c>
-      <c r="D13" s="1">
-        <v>993</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1013</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
         <v>20</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0304219823356231</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>4.327772325809617</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="4"/>
-        <v>20.464180569185476</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>260</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1066</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1086</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0304219823356231</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>4.327772325809617</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="4"/>
-        <v>21.968596663395484</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41216879293424924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>290</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1230</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1380</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0608439646712462</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>3.9156035328753682</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="4"/>
-        <v>25.34838076545633</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="5"/>
-        <v>3.0912659470068693</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1">
-        <v>379</v>
-      </c>
-      <c r="C16" s="1">
-        <v>530</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1322</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1344</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8105986261040234</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1118743866535818</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="4"/>
-        <v>27.244357212953876</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="5"/>
-        <v>0.45338567222767417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="1">
-        <v>600</v>
-      </c>
-      <c r="C17" s="1">
-        <v>751</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1322</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1344</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>12.365063788027477</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1118743866535818</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="4"/>
-        <v>27.244357212953876</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.45338567222767417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1">
-        <v>816</v>
-      </c>
-      <c r="C18" s="1">
-        <v>967</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1322</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1344</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>16.81648675171737</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1118743866535818</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="4"/>
-        <v>27.244357212953876</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>0.45338567222767417</v>
       </c>
     </row>
   </sheetData>
